--- a/Documentação/Planilha de Requisitos.xlsx
+++ b/Documentação/Planilha de Requisitos.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecco\OneDrive - Digital School - BandTec\2º Semestre\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecco\OneDrive - Digital School - BandTec\2º Semestre\Projeto\Next-Streaming\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD72BCD-6917-41C7-998A-1481C590E51B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB61307-FDCF-48F3-8DC2-60F5352AC4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1359025-A70C-4444-9610-BDFFAAAAE14F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Histórico de Alterações" sheetId="4" r:id="rId1"/>
+    <sheet name="Documentação e Matriz" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,76 +29,690 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>site inst.</t>
-  </si>
-  <si>
-    <t>aplicação (java)</t>
-  </si>
-  <si>
-    <t>arquitetura</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="136">
+  <si>
+    <t>Histórico de alterações do documento</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Alteração efetuada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsável </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data </t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Versão inicial</t>
+  </si>
+  <si>
+    <t>Documentação e Matriz de Rastreabilidade dos Requisitos - Versão 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulte outros modelos de documentos em www.easybok.com.br </t>
+  </si>
+  <si>
+    <r>
+      <t>PMBOK</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e PMP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>são marcas</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registradas do PMI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Project</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management Institute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Documentação e Matriz de Rastreabilidade dos Requisitos</t>
+  </si>
+  <si>
+    <r>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Exo 2"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+  </si>
+  <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Projeto: BestStream</t>
+  </si>
+  <si>
+    <r>
+      <t>Autor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Exo 2"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID 
+Associada</t>
+  </si>
+  <si>
+    <t>Descrição do Requisito</t>
+  </si>
+  <si>
+    <t>Objetivo / Estratégia de Negócio</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Versão do Requisito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Requisito </t>
+  </si>
+  <si>
+    <t>Complexidade</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Validador</t>
+  </si>
+  <si>
+    <t>Critérios de Aceitação</t>
+  </si>
+  <si>
+    <t>Dependência Internas entre Requisitos  (rastreabilidade)</t>
+  </si>
+  <si>
+    <t>Dependências Externas entre Requisitos (Rastreabilidade)</t>
+  </si>
+  <si>
+    <t>Data da Criação</t>
+  </si>
+  <si>
+    <t>Data Última Alteração</t>
+  </si>
+  <si>
+    <t>Responsável pela última alteração</t>
+  </si>
+  <si>
+    <t>Motivo Última Alteração</t>
+  </si>
+  <si>
+    <t>Documentação de Apoio</t>
+  </si>
+  <si>
+    <t>Situação do Requisito</t>
+  </si>
+  <si>
+    <t>Site Institucional</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>O site deve conter uma tela de apresentação da empresa</t>
   </si>
   <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Gerson</t>
+  </si>
+  <si>
+    <t>Proposto</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>O site deve conter uma tela com informações do produto</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>O site deve conter uma tela com informações para contato</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>O site deve conter um botão que redirecione para tela de login</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>O site deve conter um botão que redirecione para tela de cadastro</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>O site deve enviar um email de confirmação após o cadastro</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>O site deve conter uma tela para download da aplicação</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Aplicação</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>O software deve emitir um alerta quando o SO estiver próximo do seu limite</t>
   </si>
   <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
-    <t>O site deve conter uma tela com informações do produto</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>O software deve conter um link que redirecione o usuário ao help desk</t>
   </si>
   <si>
-    <t>Hospedagem site</t>
-  </si>
-  <si>
-    <t>O site deve conter uma tela com informações para contato</t>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Mínima</t>
+  </si>
+  <si>
+    <t>2.3</t>
   </si>
   <si>
     <t>O software deve conter um dashboard</t>
   </si>
   <si>
-    <t>O site deve conter um botão que redirecione para tela de login</t>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>2 / 2.7</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>O software deve realizar o monitoramento da CPU</t>
   </si>
   <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>O software deve realizar o monitoramento da Memória</t>
   </si>
   <si>
+    <t>2.6</t>
+  </si>
+  <si>
     <t>O software deve realizar o monitoramento do Disco</t>
   </si>
   <si>
-    <t>O software deve conter uma tela de cadastro para funcionários</t>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>O software deve gerar relatórios a partir da base de dados do cliente</t>
+  </si>
+  <si>
+    <t>2 / 3.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>O software deve conter uma tela de login</t>
   </si>
   <si>
+    <t>2 / 1.6</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>O software deve conter um FAQ</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>2 / 1</t>
+  </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>O armazenamento do sistema deve ser feito em um banco de dados em nuvem (Azure)</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>O site deve ser hospedado em uma plataforma em nuvem (Azure)</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>O projeto deve conter controle de versionamento (GitHub)</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>O projeto deve ser concebido a partir de um modelo de negócio (Canvas)</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>O projeto deve conter um Canvas adaptado</t>
+  </si>
+  <si>
+    <t>Projetado</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>O projeto deve conter uma arquitetura de solução em alto nível</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>O projeto deve conter uma aqruitetura de solução em baixo nível</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>O projeto deve conter uma documentação própria</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>O projeto deve conter um gerenciamento de possíveis riscos</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>O projeto deve conter uma proto-persona</t>
+  </si>
+  <si>
+    <t>Gerenciamento</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>O projeto deve ser controlado a partir de uma ferramenta de gestão (Planner)</t>
+  </si>
+  <si>
+    <t>A comunicação deve ser realizada através do Telegram</t>
+  </si>
+  <si>
+    <t>Implementado</t>
+  </si>
+  <si>
+    <t>Sistema Operacional</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>O projeto deve ser sustentado em um ambiente dual boot</t>
+  </si>
+  <si>
+    <t>Inovação</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>O projeto deve conter um relatório gerado a partir do PowerBI</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Vitor/Carlos</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Vitor/Gustavo/Fernando</t>
+  </si>
+  <si>
+    <t>Gustavo/Ester</t>
+  </si>
+  <si>
+    <t>Alex/Ester</t>
+  </si>
+  <si>
+    <t>Gustavo/Fernando</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Validação de todos os membrods do grupo</t>
+  </si>
+  <si>
+    <t>Em prod.</t>
+  </si>
+  <si>
+    <t>A Fazer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração da planilha </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Exo 2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +721,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -138,7 +768,161 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -146,22 +930,795 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,6 +1728,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2199216</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200024" y="533400"/>
+          <a:ext cx="2904067" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="D7:U98" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="D7:U98" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Descrição do Requisito" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivo / Estratégia de Negócio" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prioridade" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Versão do Requisito" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo Requisito " dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complexidade" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solicitante" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Responsável" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Validador" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Critérios de Aceitação" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Data da Criação" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Data Última Alteração" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Responsável pela última alteração" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Motivo Última Alteração" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Documentação de Apoio" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Situação do Requisito" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,44 +1834,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -271,9 +1921,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -329,253 +1979,3664 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBDF51-9729-4A2F-9694-68012ADC3644}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="4" spans="2:5" ht="27" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="14.4">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="52">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="14.4">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="52">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" ht="14.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" ht="14.4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="14.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="14.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" ht="14.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E37" s="3">
+        <v>41293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="39" spans="2:5" ht="15" customHeight="1">
+      <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9:M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="71.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="26" style="49" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="49" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" style="49" customWidth="1"/>
+    <col min="16" max="16" width="16" style="49" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
+      <c r="E2" s="63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="16"/>
+      <c r="T2" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
+      <c r="E4" s="54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="P4" s="72"/>
+      <c r="Q4" s="12"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:22" s="21" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="C6" s="22"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="23"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="39" customFormat="1" ht="14.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="36">
+        <v>1</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37">
+        <v>43714</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="36">
+        <v>1</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37">
+        <v>43715</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="36">
+        <v>1</v>
+      </c>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37">
+        <v>43716</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="36">
+        <v>1</v>
+      </c>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="36">
+        <v>1</v>
+      </c>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="36">
+        <v>1</v>
+      </c>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="39" customFormat="1" ht="27.6">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="36">
+        <v>1</v>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="39" customFormat="1" ht="14.4">
+      <c r="B16" s="40">
+        <v>2</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+    </row>
+    <row r="17" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="36">
+        <v>2</v>
+      </c>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="36">
+        <v>2</v>
+      </c>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="36">
+        <v>2</v>
+      </c>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="36">
+        <v>2</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="36">
+        <v>2</v>
+      </c>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B25" s="40"/>
+      <c r="C25" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+    </row>
+    <row r="28" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37">
+        <v>43691</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37">
+        <v>43691</v>
+      </c>
+      <c r="Q29" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37">
+        <v>43691</v>
+      </c>
+      <c r="Q30" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B31" s="40">
+        <v>4</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+    </row>
+    <row r="32" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="37">
+        <v>43689</v>
+      </c>
+      <c r="Q32" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37">
+        <v>43689</v>
+      </c>
+      <c r="Q33" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37">
+        <v>43693</v>
+      </c>
+      <c r="Q34" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37">
+        <v>43693</v>
+      </c>
+      <c r="Q35" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37">
+        <v>43707</v>
+      </c>
+      <c r="Q36" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="37">
+        <v>43700</v>
+      </c>
+      <c r="Q37" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="37">
+        <v>43700</v>
+      </c>
+      <c r="Q38" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B39" s="40">
+        <v>5</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+    </row>
+    <row r="40" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="37">
+        <v>43691</v>
+      </c>
+      <c r="Q40" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B41" s="40">
+        <v>6</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+    </row>
+    <row r="42" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37">
+        <v>43694</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S42" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B43" s="40">
+        <v>7</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+    </row>
+    <row r="44" spans="2:21" s="39" customFormat="1" ht="27.6">
+      <c r="B44" s="40"/>
+      <c r="C44" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" s="37">
+        <v>43719</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B45" s="40">
+        <v>8</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+    </row>
+    <row r="46" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B46" s="40">
+        <v>9</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="36"/>
+    </row>
+    <row r="47" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B47" s="40">
+        <v>10</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="36"/>
+    </row>
+    <row r="48" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B48" s="40">
+        <v>11</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="36"/>
+    </row>
+    <row r="49" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B49" s="40">
+        <v>12</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="36"/>
+    </row>
+    <row r="50" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B50" s="40">
+        <v>13</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="36"/>
+    </row>
+    <row r="51" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B51" s="40">
+        <v>14</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="36"/>
+    </row>
+    <row r="52" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B52" s="40">
+        <v>15</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="36"/>
+    </row>
+    <row r="53" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B53" s="40">
+        <v>16</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="36"/>
+    </row>
+    <row r="54" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B54" s="40">
+        <v>17</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="36"/>
+    </row>
+    <row r="55" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B55" s="40">
+        <v>18</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="36"/>
+    </row>
+    <row r="56" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B56" s="40">
+        <v>19</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="36"/>
+    </row>
+    <row r="57" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B57" s="40">
+        <v>20</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="36"/>
+    </row>
+    <row r="58" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B58" s="40">
+        <v>21</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="36"/>
+    </row>
+    <row r="59" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B59" s="40">
+        <v>22</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="36"/>
+    </row>
+    <row r="60" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B60" s="40">
+        <v>23</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="36"/>
+    </row>
+    <row r="61" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B61" s="40">
+        <v>24</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="36"/>
+    </row>
+    <row r="62" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B62" s="40">
+        <v>25</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="36"/>
+    </row>
+    <row r="63" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B63" s="40">
+        <v>26</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="36"/>
+    </row>
+    <row r="64" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B64" s="40">
+        <v>27</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="36"/>
+    </row>
+    <row r="65" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B65" s="40">
+        <v>28</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="36"/>
+    </row>
+    <row r="66" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B66" s="40">
+        <v>29</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="36"/>
+    </row>
+    <row r="67" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B67" s="40">
+        <v>30</v>
+      </c>
+      <c r="C67" s="41"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="36"/>
+    </row>
+    <row r="68" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B68" s="40">
+        <v>31</v>
+      </c>
+      <c r="C68" s="41"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="36"/>
+    </row>
+    <row r="69" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B69" s="40">
+        <v>32</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="36"/>
+    </row>
+    <row r="70" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B70" s="40">
+        <v>33</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="36"/>
+    </row>
+    <row r="71" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B71" s="40">
+        <v>34</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="36"/>
+    </row>
+    <row r="72" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B72" s="40">
+        <v>35</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="36"/>
+    </row>
+    <row r="73" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B73" s="40">
+        <v>36</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="36"/>
+    </row>
+    <row r="74" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B74" s="40">
+        <v>37</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="36"/>
+    </row>
+    <row r="75" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B75" s="40">
+        <v>38</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="36"/>
+    </row>
+    <row r="76" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B76" s="40">
+        <v>39</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="36"/>
+    </row>
+    <row r="77" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B77" s="40">
+        <v>40</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="36"/>
+    </row>
+    <row r="78" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B78" s="40">
+        <v>41</v>
+      </c>
+      <c r="C78" s="41"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="36"/>
+    </row>
+    <row r="79" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B79" s="40">
+        <v>42</v>
+      </c>
+      <c r="C79" s="41"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="36"/>
+    </row>
+    <row r="80" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B80" s="40">
+        <v>43</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="36"/>
+    </row>
+    <row r="81" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B81" s="40">
+        <v>44</v>
+      </c>
+      <c r="C81" s="41"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="36"/>
+    </row>
+    <row r="82" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B82" s="40">
+        <v>45</v>
+      </c>
+      <c r="C82" s="41"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="36"/>
+    </row>
+    <row r="83" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B83" s="40">
+        <v>46</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="36"/>
+    </row>
+    <row r="84" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B84" s="40">
+        <v>47</v>
+      </c>
+      <c r="C84" s="41"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="36"/>
+    </row>
+    <row r="85" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B85" s="40">
+        <v>48</v>
+      </c>
+      <c r="C85" s="41"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="36"/>
+    </row>
+    <row r="86" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B86" s="40">
+        <v>49</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="36"/>
+    </row>
+    <row r="87" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B87" s="40">
+        <v>50</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="36"/>
+    </row>
+    <row r="88" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B88" s="40">
+        <v>51</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="36"/>
+    </row>
+    <row r="89" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B89" s="40">
+        <v>52</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="36"/>
+    </row>
+    <row r="90" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B90" s="40">
+        <v>53</v>
+      </c>
+      <c r="C90" s="41"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="36"/>
+    </row>
+    <row r="91" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B91" s="40">
+        <v>54</v>
+      </c>
+      <c r="C91" s="41"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="36"/>
+    </row>
+    <row r="92" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B92" s="40">
+        <v>55</v>
+      </c>
+      <c r="C92" s="41"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="36"/>
+    </row>
+    <row r="93" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B93" s="40">
+        <v>56</v>
+      </c>
+      <c r="C93" s="41"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="36"/>
+    </row>
+    <row r="94" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B94" s="40">
+        <v>57</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="36"/>
+    </row>
+    <row r="95" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B95" s="40">
+        <v>58</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="36"/>
+    </row>
+    <row r="96" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B96" s="40">
+        <v>59</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="36"/>
+    </row>
+    <row r="97" spans="2:21" s="39" customFormat="1" ht="14.4">
+      <c r="B97" s="40">
+        <v>60</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="36"/>
+    </row>
+    <row r="98" spans="2:21" s="39" customFormat="1" ht="15" thickBot="1">
+      <c r="B98" s="42">
+        <v>61</v>
+      </c>
+      <c r="C98" s="43"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="36"/>
+    </row>
+    <row r="99" spans="2:21">
+      <c r="N99" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <mergeCells count="6">
+    <mergeCell ref="E4:N6"/>
+    <mergeCell ref="E2:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U98" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Proposto,Aprovado,Projetado,Implementado,Verificado, Entregue, Eliminado, Rejeitado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I98" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H98" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>$T$1:$T$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010070649AC061D4F04BB6EC1102DFB829AB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9fabe2185bbd56eca4d08d49c9f575df">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be2b4223-36fe-405e-863b-49c6636b162e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="053612b3df4cf32504b67c60a588cf8d" ns2:_="">
-    <xsd:import namespace="be2b4223-36fe-405e-863b-49c6636b162e"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034CF2E32ED268E4DA2A02C548623E642" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d058dbffa21bcce52427b8a5eccecc97">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9b173b6e-25b4-488a-9f12-d84cbaca711b" xmlns:ns4="98eb98d8-0551-4bce-80e4-4dfd171b00e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bbec2ca6660d8a632d21e7c6344de4e" ns3:_="" ns4:_="">
+    <xsd:import namespace="9b173b6e-25b4-488a-9f12-d84cbaca711b"/>
+    <xsd:import namespace="98eb98d8-0551-4bce-80e4-4dfd171b00e3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -583,7 +5644,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be2b4223-36fe-405e-863b-49c6636b162e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9b173b6e-25b4-488a-9f12-d84cbaca711b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -618,6 +5679,46 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="98eb98d8-0551-4bce-80e4-4dfd171b00e3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -628,8 +5729,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -734,13 +5835,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F898D088-3908-4C0C-A5C1-2DB9F63B35CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649E53DF-1590-4BBC-89FC-BDF8A0D4F78D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9b173b6e-25b4-488a-9f12-d84cbaca711b"/>
+    <ds:schemaRef ds:uri="98eb98d8-0551-4bce-80e4-4dfd171b00e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D50BD77-2E8F-4F98-AA88-3B1731324E92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D467962E-4A7F-45DB-8499-5E57B3EAAB0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3543D6-5069-47B2-8E3F-8A8709BA9B91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E350CA2-FBB5-4478-AFCF-253ED4995003}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9b173b6e-25b4-488a-9f12-d84cbaca711b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="98eb98d8-0551-4bce-80e4-4dfd171b00e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>